--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.24098704253383</v>
+        <v>14.292413</v>
       </c>
       <c r="H2">
-        <v>3.24098704253383</v>
+        <v>42.877239</v>
       </c>
       <c r="I2">
-        <v>0.09804253481796404</v>
+        <v>0.3214711970063286</v>
       </c>
       <c r="J2">
-        <v>0.09804253481796404</v>
+        <v>0.3214711970063286</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.24098704253383</v>
+        <v>14.292413</v>
       </c>
       <c r="N2">
-        <v>3.24098704253383</v>
+        <v>42.877239</v>
       </c>
       <c r="O2">
-        <v>0.09804253481796404</v>
+        <v>0.3214711970063286</v>
       </c>
       <c r="P2">
-        <v>0.09804253481796404</v>
+        <v>0.3214711970063286</v>
       </c>
       <c r="Q2">
-        <v>10.50399700987218</v>
+        <v>204.2730693625689</v>
       </c>
       <c r="R2">
-        <v>10.50399700987218</v>
+        <v>1838.457624263121</v>
       </c>
       <c r="S2">
-        <v>0.009612338633531692</v>
+        <v>0.1033437305046818</v>
       </c>
       <c r="T2">
-        <v>0.009612338633531692</v>
+        <v>0.1033437305046818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,52 +587,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.24098704253383</v>
+        <v>14.292413</v>
       </c>
       <c r="H3">
-        <v>3.24098704253383</v>
+        <v>42.877239</v>
       </c>
       <c r="I3">
-        <v>0.09804253481796404</v>
+        <v>0.3214711970063286</v>
       </c>
       <c r="J3">
-        <v>0.09804253481796404</v>
+        <v>0.3214711970063286</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46338267596061</v>
+        <v>2.655853</v>
       </c>
       <c r="N3">
-        <v>2.46338267596061</v>
+        <v>7.967559000000001</v>
       </c>
       <c r="O3">
-        <v>0.07451936049365324</v>
+        <v>0.05973660591691893</v>
       </c>
       <c r="P3">
-        <v>0.07451936049365324</v>
+        <v>0.05973660591691893</v>
       </c>
       <c r="Q3">
-        <v>7.983791333590649</v>
+        <v>37.958547943289</v>
       </c>
       <c r="R3">
-        <v>7.983791333590649</v>
+        <v>341.626931489601</v>
       </c>
       <c r="S3">
-        <v>0.007306066995811412</v>
+        <v>0.01920359820920726</v>
       </c>
       <c r="T3">
-        <v>0.007306066995811412</v>
+        <v>0.01920359820920726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,52 +649,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.24098704253383</v>
+        <v>14.292413</v>
       </c>
       <c r="H4">
-        <v>3.24098704253383</v>
+        <v>42.877239</v>
       </c>
       <c r="I4">
-        <v>0.09804253481796404</v>
+        <v>0.3214711970063286</v>
       </c>
       <c r="J4">
-        <v>0.09804253481796404</v>
+        <v>0.3214711970063286</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.352578967618</v>
+        <v>27.511123</v>
       </c>
       <c r="N4">
-        <v>27.352578967618</v>
+        <v>82.53336899999999</v>
       </c>
       <c r="O4">
-        <v>0.8274381046883826</v>
+        <v>0.6187921970767525</v>
       </c>
       <c r="P4">
-        <v>0.8274381046883826</v>
+        <v>0.6187921970767525</v>
       </c>
       <c r="Q4">
-        <v>88.6493540139333</v>
+        <v>393.2003320097989</v>
       </c>
       <c r="R4">
-        <v>88.6493540139333</v>
+        <v>3538.80298808819</v>
       </c>
       <c r="S4">
-        <v>0.08112412918862093</v>
+        <v>0.1989238682924396</v>
       </c>
       <c r="T4">
-        <v>0.08112412918862093</v>
+        <v>0.1989238682924396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,52 +711,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.46338267596061</v>
+        <v>2.655853</v>
       </c>
       <c r="H5">
-        <v>2.46338267596061</v>
+        <v>7.967559000000001</v>
       </c>
       <c r="I5">
-        <v>0.07451936049365324</v>
+        <v>0.05973660591691893</v>
       </c>
       <c r="J5">
-        <v>0.07451936049365324</v>
+        <v>0.05973660591691893</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.24098704253383</v>
+        <v>14.292413</v>
       </c>
       <c r="N5">
-        <v>3.24098704253383</v>
+        <v>42.877239</v>
       </c>
       <c r="O5">
-        <v>0.09804253481796404</v>
+        <v>0.3214711970063286</v>
       </c>
       <c r="P5">
-        <v>0.09804253481796404</v>
+        <v>0.3214711970063286</v>
       </c>
       <c r="Q5">
-        <v>7.983791333590649</v>
+        <v>37.958547943289</v>
       </c>
       <c r="R5">
-        <v>7.983791333590649</v>
+        <v>341.626931489601</v>
       </c>
       <c r="S5">
-        <v>0.007306066995811412</v>
+        <v>0.01920359820920726</v>
       </c>
       <c r="T5">
-        <v>0.007306066995811412</v>
+        <v>0.01920359820920726</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,52 +773,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.46338267596061</v>
+        <v>2.655853</v>
       </c>
       <c r="H6">
-        <v>2.46338267596061</v>
+        <v>7.967559000000001</v>
       </c>
       <c r="I6">
-        <v>0.07451936049365324</v>
+        <v>0.05973660591691893</v>
       </c>
       <c r="J6">
-        <v>0.07451936049365324</v>
+        <v>0.05973660591691893</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.46338267596061</v>
+        <v>2.655853</v>
       </c>
       <c r="N6">
-        <v>2.46338267596061</v>
+        <v>7.967559000000001</v>
       </c>
       <c r="O6">
-        <v>0.07451936049365324</v>
+        <v>0.05973660591691893</v>
       </c>
       <c r="P6">
-        <v>0.07451936049365324</v>
+        <v>0.05973660591691893</v>
       </c>
       <c r="Q6">
-        <v>6.068254208222855</v>
+        <v>7.053555157609</v>
       </c>
       <c r="R6">
-        <v>6.068254208222855</v>
+        <v>63.48199641848101</v>
       </c>
       <c r="S6">
-        <v>0.005553135088383046</v>
+        <v>0.003568462086473274</v>
       </c>
       <c r="T6">
-        <v>0.005553135088383046</v>
+        <v>0.003568462086473274</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,52 +835,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.46338267596061</v>
+        <v>2.655853</v>
       </c>
       <c r="H7">
-        <v>2.46338267596061</v>
+        <v>7.967559000000001</v>
       </c>
       <c r="I7">
-        <v>0.07451936049365324</v>
+        <v>0.05973660591691893</v>
       </c>
       <c r="J7">
-        <v>0.07451936049365324</v>
+        <v>0.05973660591691893</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.352578967618</v>
+        <v>27.511123</v>
       </c>
       <c r="N7">
-        <v>27.352578967618</v>
+        <v>82.53336899999999</v>
       </c>
       <c r="O7">
-        <v>0.8274381046883826</v>
+        <v>0.6187921970767525</v>
       </c>
       <c r="P7">
-        <v>0.8274381046883826</v>
+        <v>0.6187921970767525</v>
       </c>
       <c r="Q7">
-        <v>67.37986917167473</v>
+        <v>73.065498552919</v>
       </c>
       <c r="R7">
-        <v>67.37986917167473</v>
+        <v>657.589486976271</v>
       </c>
       <c r="S7">
-        <v>0.06166015840945877</v>
+        <v>0.0369645456212384</v>
       </c>
       <c r="T7">
-        <v>0.06166015840945877</v>
+        <v>0.0369645456212384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,52 +897,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.352578967618</v>
+        <v>27.511123</v>
       </c>
       <c r="H8">
-        <v>27.352578967618</v>
+        <v>82.53336899999999</v>
       </c>
       <c r="I8">
-        <v>0.8274381046883826</v>
+        <v>0.6187921970767525</v>
       </c>
       <c r="J8">
-        <v>0.8274381046883826</v>
+        <v>0.6187921970767525</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.24098704253383</v>
+        <v>14.292413</v>
       </c>
       <c r="N8">
-        <v>3.24098704253383</v>
+        <v>42.877239</v>
       </c>
       <c r="O8">
-        <v>0.09804253481796404</v>
+        <v>0.3214711970063286</v>
       </c>
       <c r="P8">
-        <v>0.09804253481796404</v>
+        <v>0.3214711970063286</v>
       </c>
       <c r="Q8">
-        <v>88.6493540139333</v>
+        <v>393.2003320097989</v>
       </c>
       <c r="R8">
-        <v>88.6493540139333</v>
+        <v>3538.80298808819</v>
       </c>
       <c r="S8">
-        <v>0.08112412918862093</v>
+        <v>0.1989238682924396</v>
       </c>
       <c r="T8">
-        <v>0.08112412918862093</v>
+        <v>0.1989238682924396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,52 +959,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.352578967618</v>
+        <v>27.511123</v>
       </c>
       <c r="H9">
-        <v>27.352578967618</v>
+        <v>82.53336899999999</v>
       </c>
       <c r="I9">
-        <v>0.8274381046883826</v>
+        <v>0.6187921970767525</v>
       </c>
       <c r="J9">
-        <v>0.8274381046883826</v>
+        <v>0.6187921970767525</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46338267596061</v>
+        <v>2.655853</v>
       </c>
       <c r="N9">
-        <v>2.46338267596061</v>
+        <v>7.967559000000001</v>
       </c>
       <c r="O9">
-        <v>0.07451936049365324</v>
+        <v>0.05973660591691893</v>
       </c>
       <c r="P9">
-        <v>0.07451936049365324</v>
+        <v>0.05973660591691893</v>
       </c>
       <c r="Q9">
-        <v>67.37986917167473</v>
+        <v>73.065498552919</v>
       </c>
       <c r="R9">
-        <v>67.37986917167473</v>
+        <v>657.589486976271</v>
       </c>
       <c r="S9">
-        <v>0.06166015840945877</v>
+        <v>0.0369645456212384</v>
       </c>
       <c r="T9">
-        <v>0.06166015840945877</v>
+        <v>0.0369645456212384</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,52 +1021,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.352578967618</v>
+        <v>27.511123</v>
       </c>
       <c r="H10">
-        <v>27.352578967618</v>
+        <v>82.53336899999999</v>
       </c>
       <c r="I10">
-        <v>0.8274381046883826</v>
+        <v>0.6187921970767525</v>
       </c>
       <c r="J10">
-        <v>0.8274381046883826</v>
+        <v>0.6187921970767525</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.352578967618</v>
+        <v>27.511123</v>
       </c>
       <c r="N10">
-        <v>27.352578967618</v>
+        <v>82.53336899999999</v>
       </c>
       <c r="O10">
-        <v>0.8274381046883826</v>
+        <v>0.6187921970767525</v>
       </c>
       <c r="P10">
-        <v>0.8274381046883826</v>
+        <v>0.6187921970767525</v>
       </c>
       <c r="Q10">
-        <v>748.1635761797786</v>
+        <v>756.8618887211288</v>
       </c>
       <c r="R10">
-        <v>748.1635761797786</v>
+        <v>6811.75699849016</v>
       </c>
       <c r="S10">
-        <v>0.6846538170903028</v>
+        <v>0.3829037831630745</v>
       </c>
       <c r="T10">
-        <v>0.6846538170903028</v>
+        <v>0.3829037831630745</v>
       </c>
     </row>
   </sheetData>
